--- a/biology/Botanique/Arboretum_du_Poërop/Arboretum_du_Poërop.xlsx
+++ b/biology/Botanique/Arboretum_du_Poërop/Arboretum_du_Poërop.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Arboretum_du_Po%C3%ABrop</t>
+          <t>Arboretum_du_Poërop</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Arbres du Monde au Huelgoat (anciennement arboretum du Poërop) se situe à Huelgoat dans les Monts d'Arrée. Dans ce parc, 3 600 espèces d'arbres et d'arbustes des cinq continents répartis en collections thématiques comme la vallée himalayenne poussent.  Tout au long de l'année, le site propose diverses animations liées à la botaniques.
 On trouve une collection d'Eucalyptus du bush australien, des théiers présentant des camélias botaniques, une bambouseraie et notamment le bambou nommé Drepanostachyum merretii (espèce dédiée au concepteur de ce parc), des roseraies, des jardins de plantes condimentaires du Yunnan, un jardin de plantes thérapeutiques destinée à une maison de retraite à proximité et des collections botaniques comme celle des érables classés par le CCVS. 
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Arboretum_du_Po%C3%ABrop</t>
+          <t>Arboretum_du_Poërop</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette riche collection d’arbres et d’arbustes fut créée au début des années 1990 à l’initiative du directeur de la maison de retraite du Huelgoat en Bretagne. Niché au cœur des monts d’Arrée dans un cadre vallonné verdoyant où s’élèvent de vieux arbres (chênes et hêtres) et résineux (pins sylvestres et épicéas de Sitka), le site, qui s’appelle alors l’arboretum du Poërop, abrite près de 3600 espèces végétales originaires des 5 continents. Installé sur 22 hectares, le lieu constitue de fait l’une des plus importantes collections ligneuses de France. Les essences, pour certaines rassemblées selon leur origine géographique, invitent à un véritable tour du monde menant des régions australes d’Amérique du Sud au bush australien en passant par les contreforts de l’Himalaya et les forêts d’Europe. Par ailleurs, de très nombreuses espèces rares jalonnent cette collection hors du commun : les chênes, les magnolias, les rhododendrons, les cornouillers, les érables et les conifères y sont particulièrement bien représentés.
 Fin 2011, alors que le site est fermé, Franck Jaclin propose de le rouvrir au public et de le baptiser « les Arbres du Monde ». Lieu consacré à la découverte de la biodiversité et à l’étude des arbres de par la richesse de ses collections ligneuses, le parc n’en demeure pas moins un jardin singulier où les végétaux installés dans un cadre champêtre associés à un entretien respectueux de l’environnement confèrent au site une atmosphère sans égale où règnent en harmonie science et nature.
